--- a/Base de données/ORGA_DA.xlsx
+++ b/Base de données/ORGA_DA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="235">
   <si>
     <t>idORGA_DA</t>
   </si>
@@ -28,6 +28,699 @@
   </si>
   <si>
     <t>occurrences_ORGA_DA</t>
+  </si>
+  <si>
+    <t>2011-2015</t>
+  </si>
+  <si>
+    <t>LOUGHBOROUGH UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF ALABAMA AT BIRMINGHAM</t>
+  </si>
+  <si>
+    <t>THE UNIVERSITY OF WESTERN AUSTRALIA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF TORONTO</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT HEIDELBERG</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF QUEENSLAND</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF PITTSBURGH</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF WISCONSIN</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF OTAGO</t>
+  </si>
+  <si>
+    <t>MONASH UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF BALLARAT</t>
+  </si>
+  <si>
+    <t>MICHIGAN STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>NORTHUMBRIA UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF CALIFORNIA</t>
+  </si>
+  <si>
+    <t>VICTORIA UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF MIAMI</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF VIRGINIA</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT GIEßEN</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT HALLE-WITTENBERG</t>
+  </si>
+  <si>
+    <t>COLLEGE OF MEDICINE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF NORTH CAROLINA AT CHAPEL HILL</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF OTTAWA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF BIRMINGHAM</t>
+  </si>
+  <si>
+    <t>GERMAN SPORT UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF WESTERN SYDNEY</t>
+  </si>
+  <si>
+    <t>LEEDS METROPOLITAN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>TUFTS UNIVERSITY SCHOOL OF MEDICINE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF CONNECTICUT</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF WASHINGTON</t>
+  </si>
+  <si>
+    <t>THE UNIVERSITY OF HULL</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT WÜRZBURG</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT FREIBURG I</t>
+  </si>
+  <si>
+    <t>BAYLOR UNIVERSITY MEDICAL CENTER AT DALLAS AND BAYLOR HEART AND VASCULAR HOSPITAL</t>
+  </si>
+  <si>
+    <t>CANADIAN MEMORIAL CHIROPRACTIC COLLEGE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF PORTO</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF ALBERTA</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN CATHOLIC UNIVERSITY</t>
+  </si>
+  <si>
+    <t>PERELMAN SCHOOL OF MEDICINE AT THE UNIVERSITY OF PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF WOLLONGONG</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF NEWCASTLE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF THE BALEARIC ISLANDS</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF SPLIT</t>
+  </si>
+  <si>
+    <t>INDIANA UNIVERSITY</t>
+  </si>
+  <si>
+    <t>AUCKLAND UNIVERSITY OF TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF LJUBLJANA</t>
+  </si>
+  <si>
+    <t>TEXAS A&amp;M UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>FLORIDA STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>THE PENNSYLVANIA STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>MANCHESTER METROPOLITAN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITÉ CLAUDE BERNARD</t>
+  </si>
+  <si>
+    <t>TECHNISCHE UNIVERSITÄT MÜNCHEN</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF BOLOGNA</t>
+  </si>
+  <si>
+    <t>COLLEGE OF DENTAL SCIENCES AND RESEARCH</t>
+  </si>
+  <si>
+    <t>MAHARISHI MARKANDESHWAR UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY COLLEGE DUBLIN</t>
+  </si>
+  <si>
+    <t>HARVARD UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF KONSTANZ</t>
+  </si>
+  <si>
+    <t>A UNIVERSITY SCHOOL OF PHYSICAL EDUCATION</t>
+  </si>
+  <si>
+    <t>DEAKIN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF VIENNA</t>
+  </si>
+  <si>
+    <t>QUEENSLAND UNIVERSITY OF TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>LAURENTIAN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>COLLEGE STATION</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF GRONINGEN</t>
+  </si>
+  <si>
+    <t>STATE COLLEGE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF THESSALY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF MELBOURNE</t>
+  </si>
+  <si>
+    <t>UNIVERSITÉ PARIS</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT POTSDAM</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF JYVASKYLA</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE ALICANTE</t>
+  </si>
+  <si>
+    <t>GABINETE DE ALIMENTACION Y NUTRICION DE LA UNIVERSIDAD DE ALICANTE (ALINUA)</t>
+  </si>
+  <si>
+    <t>ARISTOTLE UNIVERSITY OF THESSALONIKI</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF MICHIGAN</t>
+  </si>
+  <si>
+    <t>MCMASTER UNIVERSITY</t>
+  </si>
+  <si>
+    <t>QUEEN'S UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF NOTTINGHAM</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF CENTRAL LANCASHIRE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF LIMERICK</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF TENNESSEE</t>
+  </si>
+  <si>
+    <t>MEDICAL COLLEGE OF WISCONSIN</t>
+  </si>
+  <si>
+    <t>NANYANG TECHNOLOGICAL UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF GUELPH</t>
+  </si>
+  <si>
+    <t>GRAZ UNIVERSITY OF TECHNOLOGY GRAZ</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF VALENCIA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF UTAH</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF SOUTHERN CALIFORNIA</t>
+  </si>
+  <si>
+    <t>THE GEORGE WASHINGTON UNIVERSITY</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF FAMILY AND COMMUNITY MEDICINE AT THE UNIVERSITY OF TORONTO IN ONTARIO</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF EXTREMADURA</t>
+  </si>
+  <si>
+    <t>FEDERATION UNIVERSITY AUSTRALIA</t>
+  </si>
+  <si>
+    <t>DUKE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>GONABAD UNIVERSITY OF MEDICAL SCIENCES</t>
+  </si>
+  <si>
+    <t>GEORGIA STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>CENTRE FOR SPORT SCIENCE AND UNIVERSITY SPORTS</t>
+  </si>
+  <si>
+    <t>EDINBURGH NAPIER UNIVERSITY</t>
+  </si>
+  <si>
+    <t>BRIGHAM YOUNG UNIVERSITY</t>
+  </si>
+  <si>
+    <t>STAFFORDSHIRE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY MEDICAL CENTER GRONINGEN</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF ULSTER</t>
+  </si>
+  <si>
+    <t>UNIVERSITE LAVAL</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF CALGARY</t>
+  </si>
+  <si>
+    <t>GHENT UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY DRIVE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF MINNESOTA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF MISSOURI</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF VICTORIA</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT HAMBURG</t>
+  </si>
+  <si>
+    <t>TECHNISCHE UNIVERSITÄT DARMSTADT</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT MÜNSTER</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF CAPE TOWN</t>
+  </si>
+  <si>
+    <t>PEOPLE'S COLLEGE OF DENTAL SCIENCES</t>
+  </si>
+  <si>
+    <t>AUBURN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>BOSTON UNIVERSITY SCHOOL OF MEDICINE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>COLLEGE OF AGRICULTURE</t>
+  </si>
+  <si>
+    <t>UTAH STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>RESEARCH HOSPITAL CENTER OF THE UNIVERSITE DE MONTREAL (CRCHUM)</t>
+  </si>
+  <si>
+    <t>CONCORDIA UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF SOUTHERN DENMARK</t>
+  </si>
+  <si>
+    <t>CARDIFF UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF COPENHAGEN</t>
+  </si>
+  <si>
+    <t>AUTONOMOUS UNIVERSITY OF BARCELONA</t>
+  </si>
+  <si>
+    <t>UNIVERSITAT AUTONOMA DE BARCELONA</t>
+  </si>
+  <si>
+    <t>NEW YORK UNIVERSITY SCHOOL OF MEDICINE</t>
+  </si>
+  <si>
+    <t>EMORY UNIVERSITY</t>
+  </si>
+  <si>
+    <t>SOUTHERN CROSS UNIVERSITY</t>
+  </si>
+  <si>
+    <t>BALL STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>WEBER STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>SOUTHAMPTON UNIVERSITY</t>
+  </si>
+  <si>
+    <t>TEESSIDE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF LEON</t>
+  </si>
+  <si>
+    <t>EAST TENNESSEE STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF GOTHENBURG</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF BRITISH COLUMBIA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF GLASGOW</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF THE SUNSHINE COAST</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF INNSBRUCK</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF PORTSMOUTH</t>
+  </si>
+  <si>
+    <t>AZIENDA OSPEDALIERO-UNIVERSITARIA DI PARMA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF EXETER</t>
+  </si>
+  <si>
+    <t>EAST CAROLINA UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF OKLAHOMA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF CAGLIARI</t>
+  </si>
+  <si>
+    <t>MCGILL UNIVERSITY</t>
+  </si>
+  <si>
+    <t>TEXAS TECH UNIVERSITY</t>
+  </si>
+  <si>
+    <t>BROWN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF ROME FORO ITALICO</t>
+  </si>
+  <si>
+    <t>SHEFFIELD HALLAM UNIVERSITY</t>
+  </si>
+  <si>
+    <t>ANKARA UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF LEEDS</t>
+  </si>
+  <si>
+    <t>UNIVERSITÉ VICTOR SEGALEN BORDEAUX</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT KARLSRUHE</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT KONSTANZ</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT BIELEFELD</t>
+  </si>
+  <si>
+    <t>1994-2005</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT KIEL</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT LEIPZIG</t>
+  </si>
+  <si>
+    <t>CALIFORNIA STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT BOCHUM</t>
+  </si>
+  <si>
+    <t>LIVERPOOL JOHN MOORES UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT TRIER</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT FRANKFURT A</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT GÖTTINGEN</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF COLORADO</t>
+  </si>
+  <si>
+    <t>STANFORD UNIVERSITY SCHOOL OF MEDICINE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF WESTERN ONTARIO</t>
+  </si>
+  <si>
+    <t>SCHOOL OF PHYSICAL AND HEALTH EDUCATION QUEEN'S UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF LONDON</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF ILLINOIS</t>
+  </si>
+  <si>
+    <t>UNIVERSITE DU QUEBEC A MONTREAL</t>
+  </si>
+  <si>
+    <t>COLORADO STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>LAKEHEAD UNIVERSITY</t>
+  </si>
+  <si>
+    <t>CHELTENHAM &amp; GLOUCESTER COLLEGE</t>
+  </si>
+  <si>
+    <t>SOUTHERN ILLINOIS UNIVERSITY</t>
+  </si>
+  <si>
+    <t>BLAISE-PASCAL UNIVERSITY CLERMONT-FERRAND FRANCE -</t>
+  </si>
+  <si>
+    <t>FLORENCE UNIVERSITY MEDICAL SCHOOL FLORENCE ITALY -</t>
+  </si>
+  <si>
+    <t>UNIVERSITÉ LIBRE DE BRUXELLES</t>
+  </si>
+  <si>
+    <t>FREIE UNIVERSITÄT BERLIN</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT BREMEN</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT - GESAMTHOCHSCHULE PADERBORN</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT GREIFSWALD</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT TÜBINGEN</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF CINCINNATI</t>
+  </si>
+  <si>
+    <t>UNIVERSITY PARK</t>
+  </si>
+  <si>
+    <t>WESTERN WASHINGTON UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF GLOUCESTERSHIRE</t>
+  </si>
+  <si>
+    <t>EASTERN WASHINGTON UNIVERSITY</t>
+  </si>
+  <si>
+    <t>NORWEGIAN UNIVERSITY OF SPORT SCIENCE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>NORTHWESTERN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>DREW UNIVERSITY OF MEDICINE AND SCIENCE</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF BARCELONA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF WEST FLORIDA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF CAEN</t>
+  </si>
+  <si>
+    <t>TEL AVIV UNIVERSITY</t>
+  </si>
+  <si>
+    <t>MEDICAL COLLEGE OF PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>BRUNEL UNIVERSITY</t>
+  </si>
+  <si>
+    <t>OHIO STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF GEORGIA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF WALES</t>
+  </si>
+  <si>
+    <t>UNIVERSITÉ DE BOURGOGNE</t>
+  </si>
+  <si>
+    <t>VRIJE UNIVERSITEIT AMSTERDAM</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF SOUTHERN QUEENSLAND AUSTRALIA -</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF HUDDERSFIELD UNITED KINGDOM -</t>
+  </si>
+  <si>
+    <t>NORWEGIAN UNIVERSITY OF SPORT AND PHYSICAL EDUCATION OSLO NORWAY</t>
+  </si>
+  <si>
+    <t>UNIVERSITÉ MONTPELLIER</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT BAYREUTH</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT DER BUNDESWEHR MÜNCHEN</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT ERLANGEN-NÜRNBERG</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT ZÜRICH</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT DES SAARLANDES</t>
+  </si>
+  <si>
+    <t>TECHNISCHE UNIVERSITÄT DRESDEN</t>
+  </si>
+  <si>
+    <t>2006-2010</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT JENA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF ARKANSAS FOR MEDICAL SCIENCES</t>
+  </si>
+  <si>
+    <t>UNIVERSITÄT WIEN</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF ZARAGOZA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF IOWA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF NORTHERN COLORADO</t>
+  </si>
+  <si>
+    <t>MISSOURI STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>DURHAM UNIVERSITY</t>
+  </si>
+  <si>
+    <t>KATHOLIEKE UNIVERSITEIT LEUVEN</t>
+  </si>
+  <si>
+    <t>BELL COLLEGE</t>
+  </si>
+  <si>
+    <t>1903-1993</t>
+  </si>
+  <si>
+    <t>UNIVERSITAET TUEBINGEN</t>
+  </si>
+  <si>
+    <t>STATE UNIVERSITY OF NEW YORK</t>
   </si>
 </sst>
 </file>
@@ -366,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,6 +1083,6068 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>163</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>163</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>163</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>163</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>163</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>163</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>163</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" t="s">
+        <v>163</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>165</v>
+      </c>
+      <c r="C171" t="s">
+        <v>163</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" t="s">
+        <v>163</v>
+      </c>
+      <c r="D172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" t="s">
+        <v>163</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" t="s">
+        <v>163</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" t="s">
+        <v>163</v>
+      </c>
+      <c r="D175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" t="s">
+        <v>163</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" t="s">
+        <v>163</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" t="s">
+        <v>163</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" t="s">
+        <v>163</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180" t="s">
+        <v>163</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" t="s">
+        <v>163</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" t="s">
+        <v>163</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" t="s">
+        <v>163</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>166</v>
+      </c>
+      <c r="C184" t="s">
+        <v>163</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185" t="s">
+        <v>163</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>167</v>
+      </c>
+      <c r="C186" t="s">
+        <v>163</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>36</v>
+      </c>
+      <c r="C187" t="s">
+        <v>163</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>43</v>
+      </c>
+      <c r="C188" t="s">
+        <v>163</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>47</v>
+      </c>
+      <c r="C189" t="s">
+        <v>163</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>48</v>
+      </c>
+      <c r="C190" t="s">
+        <v>163</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>50</v>
+      </c>
+      <c r="C191" t="s">
+        <v>163</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>51</v>
+      </c>
+      <c r="C192" t="s">
+        <v>163</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>52</v>
+      </c>
+      <c r="C193" t="s">
+        <v>163</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>53</v>
+      </c>
+      <c r="C194" t="s">
+        <v>163</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>168</v>
+      </c>
+      <c r="C195" t="s">
+        <v>163</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196" t="s">
+        <v>163</v>
+      </c>
+      <c r="D196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>55</v>
+      </c>
+      <c r="C197" t="s">
+        <v>163</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>169</v>
+      </c>
+      <c r="C198" t="s">
+        <v>163</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>170</v>
+      </c>
+      <c r="C199" t="s">
+        <v>163</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>171</v>
+      </c>
+      <c r="C200" t="s">
+        <v>163</v>
+      </c>
+      <c r="D200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201" t="s">
+        <v>163</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>64</v>
+      </c>
+      <c r="C202" t="s">
+        <v>163</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>67</v>
+      </c>
+      <c r="C203" t="s">
+        <v>163</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>68</v>
+      </c>
+      <c r="C204" t="s">
+        <v>163</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>172</v>
+      </c>
+      <c r="C205" t="s">
+        <v>163</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>173</v>
+      </c>
+      <c r="C206" t="s">
+        <v>163</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>174</v>
+      </c>
+      <c r="C207" t="s">
+        <v>163</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>175</v>
+      </c>
+      <c r="C208" t="s">
+        <v>163</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>73</v>
+      </c>
+      <c r="C209" t="s">
+        <v>163</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>74</v>
+      </c>
+      <c r="C210" t="s">
+        <v>163</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>78</v>
+      </c>
+      <c r="C211" t="s">
+        <v>163</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>79</v>
+      </c>
+      <c r="C212" t="s">
+        <v>163</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>85</v>
+      </c>
+      <c r="C213" t="s">
+        <v>163</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>86</v>
+      </c>
+      <c r="C214" t="s">
+        <v>163</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>90</v>
+      </c>
+      <c r="C215" t="s">
+        <v>163</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>92</v>
+      </c>
+      <c r="C216" t="s">
+        <v>163</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>99</v>
+      </c>
+      <c r="C217" t="s">
+        <v>163</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>102</v>
+      </c>
+      <c r="C218" t="s">
+        <v>163</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>112</v>
+      </c>
+      <c r="C219" t="s">
+        <v>163</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>176</v>
+      </c>
+      <c r="C220" t="s">
+        <v>163</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>177</v>
+      </c>
+      <c r="C221" t="s">
+        <v>163</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>178</v>
+      </c>
+      <c r="C222" t="s">
+        <v>163</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>179</v>
+      </c>
+      <c r="C223" t="s">
+        <v>163</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>180</v>
+      </c>
+      <c r="C224" t="s">
+        <v>163</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>181</v>
+      </c>
+      <c r="C225" t="s">
+        <v>163</v>
+      </c>
+      <c r="D225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>182</v>
+      </c>
+      <c r="C226" t="s">
+        <v>163</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>183</v>
+      </c>
+      <c r="C227" t="s">
+        <v>163</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>184</v>
+      </c>
+      <c r="C228" t="s">
+        <v>163</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>185</v>
+      </c>
+      <c r="C229" t="s">
+        <v>163</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>186</v>
+      </c>
+      <c r="C230" t="s">
+        <v>163</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>187</v>
+      </c>
+      <c r="C231" t="s">
+        <v>163</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>188</v>
+      </c>
+      <c r="C232" t="s">
+        <v>163</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>189</v>
+      </c>
+      <c r="C233" t="s">
+        <v>163</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>190</v>
+      </c>
+      <c r="C234" t="s">
+        <v>163</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>114</v>
+      </c>
+      <c r="C235" t="s">
+        <v>163</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>127</v>
+      </c>
+      <c r="C236" t="s">
+        <v>163</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>139</v>
+      </c>
+      <c r="C237" t="s">
+        <v>163</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>141</v>
+      </c>
+      <c r="C238" t="s">
+        <v>163</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>147</v>
+      </c>
+      <c r="C239" t="s">
+        <v>163</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>191</v>
+      </c>
+      <c r="C240" t="s">
+        <v>163</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>192</v>
+      </c>
+      <c r="C241" t="s">
+        <v>163</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>193</v>
+      </c>
+      <c r="C242" t="s">
+        <v>163</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>194</v>
+      </c>
+      <c r="C243" t="s">
+        <v>163</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>195</v>
+      </c>
+      <c r="C244" t="s">
+        <v>163</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>196</v>
+      </c>
+      <c r="C245" t="s">
+        <v>163</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>197</v>
+      </c>
+      <c r="C246" t="s">
+        <v>163</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>198</v>
+      </c>
+      <c r="C247" t="s">
+        <v>163</v>
+      </c>
+      <c r="D247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>199</v>
+      </c>
+      <c r="C248" t="s">
+        <v>163</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>200</v>
+      </c>
+      <c r="C249" t="s">
+        <v>163</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>201</v>
+      </c>
+      <c r="C250" t="s">
+        <v>163</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>202</v>
+      </c>
+      <c r="C251" t="s">
+        <v>163</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>203</v>
+      </c>
+      <c r="C252" t="s">
+        <v>163</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>204</v>
+      </c>
+      <c r="C253" t="s">
+        <v>163</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>205</v>
+      </c>
+      <c r="C254" t="s">
+        <v>163</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>206</v>
+      </c>
+      <c r="C255" t="s">
+        <v>163</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>207</v>
+      </c>
+      <c r="C256" t="s">
+        <v>163</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>208</v>
+      </c>
+      <c r="C257" t="s">
+        <v>163</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>209</v>
+      </c>
+      <c r="C258" t="s">
+        <v>163</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>210</v>
+      </c>
+      <c r="C259" t="s">
+        <v>163</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>211</v>
+      </c>
+      <c r="C260" t="s">
+        <v>163</v>
+      </c>
+      <c r="D260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>212</v>
+      </c>
+      <c r="C261" t="s">
+        <v>163</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>213</v>
+      </c>
+      <c r="C262" t="s">
+        <v>163</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>214</v>
+      </c>
+      <c r="C263" t="s">
+        <v>163</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>215</v>
+      </c>
+      <c r="C264" t="s">
+        <v>163</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>216</v>
+      </c>
+      <c r="C265" t="s">
+        <v>163</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>217</v>
+      </c>
+      <c r="C266" t="s">
+        <v>163</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>218</v>
+      </c>
+      <c r="C267" t="s">
+        <v>163</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>219</v>
+      </c>
+      <c r="C268" t="s">
+        <v>163</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>161</v>
+      </c>
+      <c r="C269" t="s">
+        <v>163</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>220</v>
+      </c>
+      <c r="C270" t="s">
+        <v>163</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>221</v>
+      </c>
+      <c r="D271">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" t="s">
+        <v>221</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" t="s">
+        <v>221</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" t="s">
+        <v>221</v>
+      </c>
+      <c r="D274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" t="s">
+        <v>221</v>
+      </c>
+      <c r="D275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" t="s">
+        <v>221</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" t="s">
+        <v>221</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" t="s">
+        <v>221</v>
+      </c>
+      <c r="D278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>14</v>
+      </c>
+      <c r="C279" t="s">
+        <v>221</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280" t="s">
+        <v>221</v>
+      </c>
+      <c r="D280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281" t="s">
+        <v>221</v>
+      </c>
+      <c r="D281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>165</v>
+      </c>
+      <c r="C282" t="s">
+        <v>221</v>
+      </c>
+      <c r="D282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283" t="s">
+        <v>221</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>20</v>
+      </c>
+      <c r="C284" t="s">
+        <v>221</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>21</v>
+      </c>
+      <c r="C285" t="s">
+        <v>221</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>22</v>
+      </c>
+      <c r="C286" t="s">
+        <v>221</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>23</v>
+      </c>
+      <c r="C287" t="s">
+        <v>221</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>25</v>
+      </c>
+      <c r="C288" t="s">
+        <v>221</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>26</v>
+      </c>
+      <c r="C289" t="s">
+        <v>221</v>
+      </c>
+      <c r="D289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>27</v>
+      </c>
+      <c r="C290" t="s">
+        <v>221</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>30</v>
+      </c>
+      <c r="C291" t="s">
+        <v>221</v>
+      </c>
+      <c r="D291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>32</v>
+      </c>
+      <c r="C292" t="s">
+        <v>221</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>33</v>
+      </c>
+      <c r="C293" t="s">
+        <v>221</v>
+      </c>
+      <c r="D293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>166</v>
+      </c>
+      <c r="C294" t="s">
+        <v>221</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>34</v>
+      </c>
+      <c r="C295" t="s">
+        <v>221</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>167</v>
+      </c>
+      <c r="C296" t="s">
+        <v>221</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>36</v>
+      </c>
+      <c r="C297" t="s">
+        <v>221</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>39</v>
+      </c>
+      <c r="C298" t="s">
+        <v>221</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>40</v>
+      </c>
+      <c r="C299" t="s">
+        <v>221</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>41</v>
+      </c>
+      <c r="C300" t="s">
+        <v>221</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>44</v>
+      </c>
+      <c r="C301" t="s">
+        <v>221</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>46</v>
+      </c>
+      <c r="C302" t="s">
+        <v>221</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>47</v>
+      </c>
+      <c r="C303" t="s">
+        <v>221</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>48</v>
+      </c>
+      <c r="C304" t="s">
+        <v>221</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>49</v>
+      </c>
+      <c r="C305" t="s">
+        <v>221</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>50</v>
+      </c>
+      <c r="C306" t="s">
+        <v>221</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>52</v>
+      </c>
+      <c r="C307" t="s">
+        <v>221</v>
+      </c>
+      <c r="D307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>53</v>
+      </c>
+      <c r="C308" t="s">
+        <v>221</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>168</v>
+      </c>
+      <c r="C309" t="s">
+        <v>221</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>170</v>
+      </c>
+      <c r="C310" t="s">
+        <v>221</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>171</v>
+      </c>
+      <c r="C311" t="s">
+        <v>221</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>56</v>
+      </c>
+      <c r="C312" t="s">
+        <v>221</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>62</v>
+      </c>
+      <c r="C313" t="s">
+        <v>221</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>65</v>
+      </c>
+      <c r="C314" t="s">
+        <v>221</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>68</v>
+      </c>
+      <c r="C315" t="s">
+        <v>221</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>69</v>
+      </c>
+      <c r="C316" t="s">
+        <v>221</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>71</v>
+      </c>
+      <c r="C317" t="s">
+        <v>221</v>
+      </c>
+      <c r="D317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>72</v>
+      </c>
+      <c r="C318" t="s">
+        <v>221</v>
+      </c>
+      <c r="D318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>172</v>
+      </c>
+      <c r="C319" t="s">
+        <v>221</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>173</v>
+      </c>
+      <c r="C320" t="s">
+        <v>221</v>
+      </c>
+      <c r="D320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>174</v>
+      </c>
+      <c r="C321" t="s">
+        <v>221</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>73</v>
+      </c>
+      <c r="C322" t="s">
+        <v>221</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>222</v>
+      </c>
+      <c r="C323" t="s">
+        <v>221</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>74</v>
+      </c>
+      <c r="C324" t="s">
+        <v>221</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>75</v>
+      </c>
+      <c r="C325" t="s">
+        <v>221</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>78</v>
+      </c>
+      <c r="C326" t="s">
+        <v>221</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>79</v>
+      </c>
+      <c r="C327" t="s">
+        <v>221</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>83</v>
+      </c>
+      <c r="C328" t="s">
+        <v>221</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>88</v>
+      </c>
+      <c r="C329" t="s">
+        <v>221</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>90</v>
+      </c>
+      <c r="C330" t="s">
+        <v>221</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>95</v>
+      </c>
+      <c r="C331" t="s">
+        <v>221</v>
+      </c>
+      <c r="D331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>100</v>
+      </c>
+      <c r="C332" t="s">
+        <v>221</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>103</v>
+      </c>
+      <c r="C333" t="s">
+        <v>221</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>104</v>
+      </c>
+      <c r="C334" t="s">
+        <v>221</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>105</v>
+      </c>
+      <c r="C335" t="s">
+        <v>221</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>107</v>
+      </c>
+      <c r="C336" t="s">
+        <v>221</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>108</v>
+      </c>
+      <c r="C337" t="s">
+        <v>221</v>
+      </c>
+      <c r="D337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>109</v>
+      </c>
+      <c r="C338" t="s">
+        <v>221</v>
+      </c>
+      <c r="D338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>110</v>
+      </c>
+      <c r="C339" t="s">
+        <v>221</v>
+      </c>
+      <c r="D339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>111</v>
+      </c>
+      <c r="C340" t="s">
+        <v>221</v>
+      </c>
+      <c r="D340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>112</v>
+      </c>
+      <c r="C341" t="s">
+        <v>221</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>176</v>
+      </c>
+      <c r="C342" t="s">
+        <v>221</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>177</v>
+      </c>
+      <c r="C343" t="s">
+        <v>221</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>223</v>
+      </c>
+      <c r="C344" t="s">
+        <v>221</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>178</v>
+      </c>
+      <c r="C345" t="s">
+        <v>221</v>
+      </c>
+      <c r="D345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>113</v>
+      </c>
+      <c r="C346" t="s">
+        <v>221</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>224</v>
+      </c>
+      <c r="C347" t="s">
+        <v>221</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>190</v>
+      </c>
+      <c r="C348" t="s">
+        <v>221</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>115</v>
+      </c>
+      <c r="C349" t="s">
+        <v>221</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>116</v>
+      </c>
+      <c r="C350" t="s">
+        <v>221</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>117</v>
+      </c>
+      <c r="C351" t="s">
+        <v>221</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>125</v>
+      </c>
+      <c r="C352" t="s">
+        <v>221</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>128</v>
+      </c>
+      <c r="C353" t="s">
+        <v>221</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>130</v>
+      </c>
+      <c r="C354" t="s">
+        <v>221</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>131</v>
+      </c>
+      <c r="C355" t="s">
+        <v>221</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>133</v>
+      </c>
+      <c r="C356" t="s">
+        <v>221</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>135</v>
+      </c>
+      <c r="C357" t="s">
+        <v>221</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>138</v>
+      </c>
+      <c r="C358" t="s">
+        <v>221</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>145</v>
+      </c>
+      <c r="C359" t="s">
+        <v>221</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>148</v>
+      </c>
+      <c r="C360" t="s">
+        <v>221</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>149</v>
+      </c>
+      <c r="C361" t="s">
+        <v>221</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>150</v>
+      </c>
+      <c r="C362" t="s">
+        <v>221</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>151</v>
+      </c>
+      <c r="C363" t="s">
+        <v>221</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>152</v>
+      </c>
+      <c r="C364" t="s">
+        <v>221</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>153</v>
+      </c>
+      <c r="C365" t="s">
+        <v>221</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>155</v>
+      </c>
+      <c r="C366" t="s">
+        <v>221</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>156</v>
+      </c>
+      <c r="C367" t="s">
+        <v>221</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>157</v>
+      </c>
+      <c r="C368" t="s">
+        <v>221</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>225</v>
+      </c>
+      <c r="C369" t="s">
+        <v>221</v>
+      </c>
+      <c r="D369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>158</v>
+      </c>
+      <c r="C370" t="s">
+        <v>221</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>191</v>
+      </c>
+      <c r="C371" t="s">
+        <v>221</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>192</v>
+      </c>
+      <c r="C372" t="s">
+        <v>221</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>226</v>
+      </c>
+      <c r="C373" t="s">
+        <v>221</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>227</v>
+      </c>
+      <c r="C374" t="s">
+        <v>221</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>228</v>
+      </c>
+      <c r="C375" t="s">
+        <v>221</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>193</v>
+      </c>
+      <c r="C376" t="s">
+        <v>221</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>194</v>
+      </c>
+      <c r="C377" t="s">
+        <v>221</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>195</v>
+      </c>
+      <c r="C378" t="s">
+        <v>221</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>196</v>
+      </c>
+      <c r="C379" t="s">
+        <v>221</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>197</v>
+      </c>
+      <c r="C380" t="s">
+        <v>221</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>229</v>
+      </c>
+      <c r="C381" t="s">
+        <v>221</v>
+      </c>
+      <c r="D381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>230</v>
+      </c>
+      <c r="C382" t="s">
+        <v>221</v>
+      </c>
+      <c r="D382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>231</v>
+      </c>
+      <c r="C383" t="s">
+        <v>221</v>
+      </c>
+      <c r="D383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>205</v>
+      </c>
+      <c r="C384" t="s">
+        <v>221</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>159</v>
+      </c>
+      <c r="C385" t="s">
+        <v>221</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>220</v>
+      </c>
+      <c r="C386" t="s">
+        <v>221</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>162</v>
+      </c>
+      <c r="C387" t="s">
+        <v>221</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" t="s">
+        <v>232</v>
+      </c>
+      <c r="D388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>9</v>
+      </c>
+      <c r="C389" t="s">
+        <v>232</v>
+      </c>
+      <c r="D389">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" t="s">
+        <v>232</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>11</v>
+      </c>
+      <c r="C391" t="s">
+        <v>232</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>164</v>
+      </c>
+      <c r="C392" t="s">
+        <v>232</v>
+      </c>
+      <c r="D392">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>12</v>
+      </c>
+      <c r="C393" t="s">
+        <v>232</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>13</v>
+      </c>
+      <c r="C394" t="s">
+        <v>232</v>
+      </c>
+      <c r="D394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>16</v>
+      </c>
+      <c r="C395" t="s">
+        <v>232</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>165</v>
+      </c>
+      <c r="C396" t="s">
+        <v>232</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>18</v>
+      </c>
+      <c r="C397" t="s">
+        <v>232</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>22</v>
+      </c>
+      <c r="C398" t="s">
+        <v>232</v>
+      </c>
+      <c r="D398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>33</v>
+      </c>
+      <c r="C399" t="s">
+        <v>232</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>166</v>
+      </c>
+      <c r="C400" t="s">
+        <v>232</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>35</v>
+      </c>
+      <c r="C401" t="s">
+        <v>232</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>167</v>
+      </c>
+      <c r="C402" t="s">
+        <v>232</v>
+      </c>
+      <c r="D402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>36</v>
+      </c>
+      <c r="C403" t="s">
+        <v>232</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>169</v>
+      </c>
+      <c r="C404" t="s">
+        <v>232</v>
+      </c>
+      <c r="D404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>170</v>
+      </c>
+      <c r="C405" t="s">
+        <v>232</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
+        <v>171</v>
+      </c>
+      <c r="C406" t="s">
+        <v>232</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>172</v>
+      </c>
+      <c r="C407" t="s">
+        <v>232</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>222</v>
+      </c>
+      <c r="C408" t="s">
+        <v>232</v>
+      </c>
+      <c r="D408">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>85</v>
+      </c>
+      <c r="C409" t="s">
+        <v>232</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>86</v>
+      </c>
+      <c r="C410" t="s">
+        <v>232</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>99</v>
+      </c>
+      <c r="C411" t="s">
+        <v>232</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>103</v>
+      </c>
+      <c r="C412" t="s">
+        <v>232</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>106</v>
+      </c>
+      <c r="C413" t="s">
+        <v>232</v>
+      </c>
+      <c r="D413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>176</v>
+      </c>
+      <c r="C414" t="s">
+        <v>232</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>223</v>
+      </c>
+      <c r="C415" t="s">
+        <v>232</v>
+      </c>
+      <c r="D415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>179</v>
+      </c>
+      <c r="C416" t="s">
+        <v>232</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>180</v>
+      </c>
+      <c r="C417" t="s">
+        <v>232</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>182</v>
+      </c>
+      <c r="C418" t="s">
+        <v>232</v>
+      </c>
+      <c r="D418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>186</v>
+      </c>
+      <c r="C419" t="s">
+        <v>232</v>
+      </c>
+      <c r="D419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
+        <v>187</v>
+      </c>
+      <c r="C420" t="s">
+        <v>232</v>
+      </c>
+      <c r="D420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421" t="s">
+        <v>224</v>
+      </c>
+      <c r="C421" t="s">
+        <v>232</v>
+      </c>
+      <c r="D421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422" t="s">
+        <v>188</v>
+      </c>
+      <c r="C422" t="s">
+        <v>232</v>
+      </c>
+      <c r="D422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423" t="s">
+        <v>189</v>
+      </c>
+      <c r="C423" t="s">
+        <v>232</v>
+      </c>
+      <c r="D423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" t="s">
+        <v>190</v>
+      </c>
+      <c r="C424" t="s">
+        <v>232</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" t="s">
+        <v>233</v>
+      </c>
+      <c r="C425" t="s">
+        <v>232</v>
+      </c>
+      <c r="D425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426" t="s">
+        <v>142</v>
+      </c>
+      <c r="C426" t="s">
+        <v>232</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427" t="s">
+        <v>226</v>
+      </c>
+      <c r="C427" t="s">
+        <v>232</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" t="s">
+        <v>227</v>
+      </c>
+      <c r="C428" t="s">
+        <v>232</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" t="s">
+        <v>201</v>
+      </c>
+      <c r="C429" t="s">
+        <v>232</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" t="s">
+        <v>234</v>
+      </c>
+      <c r="C430" t="s">
+        <v>232</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" t="s">
+        <v>208</v>
+      </c>
+      <c r="C431" t="s">
+        <v>232</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" t="s">
+        <v>210</v>
+      </c>
+      <c r="C432" t="s">
+        <v>232</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" t="s">
+        <v>160</v>
+      </c>
+      <c r="C433" t="s">
+        <v>232</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434" t="s">
+        <v>215</v>
+      </c>
+      <c r="C434" t="s">
+        <v>232</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
